--- a/biology/Zoologie/Alsophylax_pipiens/Alsophylax_pipiens.xlsx
+++ b/biology/Zoologie/Alsophylax_pipiens/Alsophylax_pipiens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alsophylax pipiens est une espèce de geckos de la famille des Gekkonidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alsophylax pipiens est une espèce de geckos de la famille des Gekkonidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre :
 en Mongolie dans le desert de Gobi ;
 en Chine  ;
 au Kazakhstan ;
@@ -549,7 +563,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un gecko insectivore, nocturne et terrestre qui vit dans le désert.
 Ils sont assez élancés, sans être sveltes, avec des pattes plutôt fines, de longs doigts et une queue assez épaisse. La couleur de base est le gris, beige ou marron clair, avec des bandes transversales plus sombres sur le dos. La face ventrale est blanc-beige.
@@ -582,7 +598,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de cette espèce vient du latin pipire, piauler, en référence au cri que peut pousser ce gecko.
 </t>
@@ -613,7 +631,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Pallas,  1827 : Zoographia Rosso-Asiatica, sistens omnium animalium in extsenso imperio rossico et adjacentibus maribus observatorum recensionexu, domicilia, mores et descriptiones, anatomen atque icones plurimorum. Volumen Tertum, Caes. Acad. Sci., Petropoli.</t>
         </is>
